--- a/src/test/resources/excel/User/UserService-testData.xlsx
+++ b/src/test/resources/excel/User/UserService-testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\Desktop\pbl6\backend\backend\src\test\resources\excel\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0A060-563C-49ED-BF30-519DEB804FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E62F087-EB79-4FF3-AECA-F5E0F3D784F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{9F390667-91CC-4D65-8548-3C2B4AA91BDA}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9F390667-91CC-4D65-8548-3C2B4AA91BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateUser" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>username</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>non-existent</t>
-  </si>
-  <si>
-    <t>USER_NOT_FOUND</t>
   </si>
   <si>
     <t>TC5: Multiple roles get own info</t>
@@ -672,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F77B70-C5E8-4A28-8DA5-B9A19A25E965}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +753,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,7 +834,7 @@
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -949,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50EA194-88D4-4A77-8453-009A9D7DF628}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,24 +1047,24 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>48</v>
